--- a/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
+++ b/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.27</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,384 +550,524 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.27</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>006127</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>94.72</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>3.33</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011114</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国沪港深行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>83.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>87.19</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>89.61</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>5.44</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005802</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富智能制造股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>81.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005354</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富国沪港深行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>83.39</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009736</t>
+          <t>169104</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富稳健收益混合A</t>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28.07</t>
+          <t>71.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009737</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富稳健收益混合C</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28.07</t>
+          <t>95.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>169104</t>
+          <t>009736</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+          <t>汇添富稳健收益混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>73.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007639</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>72.89</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003580</t>
+          <t>010377</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
+          <t>广发价值核心混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.68</t>
+          <t>71.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3790</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>009737</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>汇添富稳健收益混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>31.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8073</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>007639</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>72.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7522</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006537</t>
+          <t>010583</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恒生前海港股通精选混合</t>
+          <t>富国蓝筹精选股票（QDII）美元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>007455</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.85</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6806</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>85.85</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.53</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4168</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010377</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发价值核心混合A</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3669</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010378</t>
+          <t>952035</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发价值核心混合C</t>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>010378</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>广发价值核心混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>12.21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>900009</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>中信证券成长动力混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>501063</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>汇添富悦享定期开放混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>501063</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>汇添富悦享定期开放混合</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>75.69</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010583</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）美元</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>006537</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>恒生前海港股通精选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007455</t>
+          <t>003580</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国蓝筹精选股票（QDII）人民币</t>
+          <t>泰康沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>85.32</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>83.01</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>5</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>900059</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>中信证券成长动力混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1640,15 +2050,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>93.98</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2.94</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005847</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合A</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011117</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>富国沪港深业绩驱动混合C</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>73.53</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>900009</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合A</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>71.79</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>900059</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中信证券成长动力混合C</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>71.79</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>952035</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国泰君安君得诚混合型集合资产管理计划</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
+++ b/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2265,4 +2266,1314 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7996</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007639</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7811</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>61.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010457</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010458</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发睿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
+++ b/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3576,4 +3577,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4693</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8781</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6967</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
+++ b/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4773,4 +4774,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
+++ b/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4782,7 +4783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4793,17 +4794,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4813,14 +4834,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.55</v>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4829,14 +4872,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.14</v>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7449</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4845,14 +4910,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.22</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4861,13 +4948,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3616</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.49</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
+++ b/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6017,7 +6018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6028,17 +6029,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6048,14 +6069,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.25</v>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6064,14 +6107,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.55</v>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6080,14 +6145,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.14</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6096,14 +6183,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.22</v>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6112,13 +6221,965 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>513230</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证港股通消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513590</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.49</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
+++ b/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7062,7 +7063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7073,17 +7074,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7093,14 +7114,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.18</v>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6138</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7109,14 +7152,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.25</v>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7823</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7125,14 +7190,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.55</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -7141,14 +7228,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.14</v>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7157,14 +7266,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>19.22</v>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -7173,13 +7304,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501063</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富悦享定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.49</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
+++ b/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>7.87</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>10.18</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>13.25</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>13.55</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>12.14</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>19.22</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.49</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6777</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2421,7 +3102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3655,7 +4336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4851,7 +5532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6161,7 +6842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7357,7 +8038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
+++ b/数据整理/stocks/港股/02319-蒙牛乳业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>7.87</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>10.18</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>13.25</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>13.55</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>12.14</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>19.22</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,656 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161831</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华恒生国企指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1260,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8529</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006752</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006753</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘港股通精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1821</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +2625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +3403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3102,7 +4447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4336,7 +5681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5532,7 +6877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6842,7 +8187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8036,630 +9381,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010591</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5137</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100061</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5137</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005847</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>42.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4616</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005354</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国沪港深行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>47.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1409</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4109</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005802</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富智能制造股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3945</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011114</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国沪港深行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.39</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2314</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006752</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2007</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011117</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国沪港深业绩驱动混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1688</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006753</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘港股通精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1655</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161831</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华恒生国企指数（QDII-LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.19</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1562</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006537</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>恒生前海港股通精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0491</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0380</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0337</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>